--- a/biology/Médecine/Czesław_Gawlikowski/Czesław_Gawlikowski.xlsx
+++ b/biology/Médecine/Czesław_Gawlikowski/Czesław_Gawlikowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Czes%C5%82aw_Gawlikowski</t>
+          <t>Czesław_Gawlikowski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Czesław Gawlikowski, né le 25 février 1899 à Saint-Pétersbourg, mort le 15 mars 1984 à Łódź, est un médecin[1], officier, résistant et activiste social polonais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Czesław Gawlikowski, né le 25 février 1899 à Saint-Pétersbourg, mort le 15 mars 1984 à Łódź, est un médecin, officier, résistant et activiste social polonais.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Czes%C5%82aw_Gawlikowski</t>
+          <t>Czesław_Gawlikowski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,34 +523,246 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Czesław Gawlikowski est le fils de Wíktor et Kazimiera née Szening. Il est l'ainée de la fratrie qui comprends Witold, Wiktor, Zofia, Janusz et Zbigniew. Il grandit à Saint-Pétersbourg dans une famille d'intellectuels polonais (son père était mathématicien). La famille était originaire de Wieliczka près de Cracovie. Dans les années 1911-1918, il fréquente le lycée V de Saint-Pétersbourg, d'où il sort avec son baccalauréat et une médaille d'or (major de promotion).[réf. nécessaire]
-Première guerre mondiale
-Le 25 juin 1918, en tant que volontaire, il rejoint la Légion polonaise à Omsk et entre dans la 5e division de fusiliers polonais (Sibérie). En septembre 1918, il est diplômé de l'école de sous-officiers d'Ufa et le 3 octobre 1918, il est nommé sergent de section. Il sert d'abord dans la 9e compagnie du 1er régiment de fusiliers polonais, qui porte le nom de T. Kosciuszko, puis dans la 3e compagnie du 2e régiment de fusiliers et, à partir de mars 1919, dans le bataillon d'assaut.[réf. nécessaire]
-Il y sert jusqu'à la capitulation du 10 janvier 1920 à Klukvennaya. Il s'évade le même jour et coopère avec la Polska Tajna Organizacja qui aide les prisonniers de guerre polonais en Sibérie et les rapatrie en Pologne. En mars 1920, il est arrêté et emprisonné à Krasnoiarsk et à Omsk où il est interrogé par la Tcheka. Il a été arreté alors qu'il aidait Jan Papis - le sergent-chef du bataillon d’assaut - à s'évader. Après avoir contracté le typhus, il est transféré dans une prison de Tcheliabinsk pour y être astreint aux travaux forcés en compagnie des commandants Jan Medwadowski (pl)[2] et Jan Surówka (pl) Il s’évade le 5 juillet 1920 et se cache sous le nom de Józef Maliszewski dans un moulin près de Tcheliabinsk[3].[source insuffisante]
-De mai à décembre 1921[4], il sert dans le 82e régiment d'infanterie sibérienne[5] à Brest-Litovsk. Après avoir été transféré dans la réserve et avoir passé son examen de fin d'études en langue polonaise, il commence à étudier le droit à l'université de Varsovie puis la médecine.[source insuffisante]
-Entre deux guerres
-Après quatre semestres en droit, il passe à la faculté de médecine de Varsovie. Le 16 août 1928, il est appelé au service actif dans l'armée polonaise et, le 1er septembre 1928, il part pour l'école sanitaire des officiers à Varsovie. Le 18 décembre 1928, il est promu à la direction de toutes les sciences médicales et devient sous-lieutenant. En janvier 1929, il est transféré au poste de médecin auxiliaire du 60e régiment d'infanterie de Wìelkopolska et, le 1er janvier, il est affecté au 1er hôpital de district. J. Pilsudski à Varsovie.[réf. nécessaire]
-Le 1er janvier 1931, n'ayant pu obtenir à temps une affectation dans un hôpital militaire de la "catégorie de spécialité", il est révoqué du service actif à sa propre demande mais reste reserviste. D'avril 1929 au 1er juin 1930, il travaille comme assistant bénévole à la maternité municipale St Zofiì de Varsovie et se spécialise en chirurgie obstétricale. À partir du 1er février 1931, il travaille à l'hôpital de l'Enfant Jésus à Varsovie, d'abord (jusqu'au 30 octobre 1932) en tant qu'assistant bénévole, puis en tant qu'assistant du Dr Zdzisław Sławiński dans le service de chirurgie[6].
-Depuis 1929, il vit à Pruszków, petite ville à quelques kilomêtres de Varsovie. Le maire de Pruszków a écrit à son sujet qu'il était un travailleur social très actif dans la ville, et ainsi: il était président du BBWR, président de l'Association des anciens volontaires de l'armée polonaise et, à partir de 1934, conseiller municipal de la ville de Pruszków. Lors des élections municipales de 1934, au nom du BBWR (en), il est directeur de la campagne électorale et, après les élections devient conseiller municipal, il est président du club du Bloc d'unité économique.Il est également président du cercle de Pruszkow des anciens volontaires de l'armée polonaise (pl). En tant que médecin, il est médecin bénévole auprès des enfants handicapés et des filles-mères[7] dans les établissements tenus par les Sœurs Samaritaines.[source insuffisante]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Czesław_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Czes%C5%82aw_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Première guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25 juin 1918, en tant que volontaire, il rejoint la Légion polonaise à Omsk et entre dans la 5e division de fusiliers polonais (Sibérie). En septembre 1918, il est diplômé de l'école de sous-officiers d'Ufa et le 3 octobre 1918, il est nommé sergent de section. Il sert d'abord dans la 9e compagnie du 1er régiment de fusiliers polonais, qui porte le nom de T. Kosciuszko, puis dans la 3e compagnie du 2e régiment de fusiliers et, à partir de mars 1919, dans le bataillon d'assaut.[réf. nécessaire]
+Il y sert jusqu'à la capitulation du 10 janvier 1920 à Klukvennaya. Il s'évade le même jour et coopère avec la Polska Tajna Organizacja qui aide les prisonniers de guerre polonais en Sibérie et les rapatrie en Pologne. En mars 1920, il est arrêté et emprisonné à Krasnoiarsk et à Omsk où il est interrogé par la Tcheka. Il a été arreté alors qu'il aidait Jan Papis - le sergent-chef du bataillon d’assaut - à s'évader. Après avoir contracté le typhus, il est transféré dans une prison de Tcheliabinsk pour y être astreint aux travaux forcés en compagnie des commandants Jan Medwadowski (pl) et Jan Surówka (pl) Il s’évade le 5 juillet 1920 et se cache sous le nom de Józef Maliszewski dans un moulin près de Tcheliabinsk.[source insuffisante]
+De mai à décembre 1921, il sert dans le 82e régiment d'infanterie sibérienne à Brest-Litovsk. Après avoir été transféré dans la réserve et avoir passé son examen de fin d'études en langue polonaise, il commence à étudier le droit à l'université de Varsovie puis la médecine.[source insuffisante]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Czesław_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Czes%C5%82aw_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Entre deux guerres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après quatre semestres en droit, il passe à la faculté de médecine de Varsovie. Le 16 août 1928, il est appelé au service actif dans l'armée polonaise et, le 1er septembre 1928, il part pour l'école sanitaire des officiers à Varsovie. Le 18 décembre 1928, il est promu à la direction de toutes les sciences médicales et devient sous-lieutenant. En janvier 1929, il est transféré au poste de médecin auxiliaire du 60e régiment d'infanterie de Wìelkopolska et, le 1er janvier, il est affecté au 1er hôpital de district. J. Pilsudski à Varsovie.[réf. nécessaire]
+Le 1er janvier 1931, n'ayant pu obtenir à temps une affectation dans un hôpital militaire de la "catégorie de spécialité", il est révoqué du service actif à sa propre demande mais reste reserviste. D'avril 1929 au 1er juin 1930, il travaille comme assistant bénévole à la maternité municipale St Zofiì de Varsovie et se spécialise en chirurgie obstétricale. À partir du 1er février 1931, il travaille à l'hôpital de l'Enfant Jésus à Varsovie, d'abord (jusqu'au 30 octobre 1932) en tant qu'assistant bénévole, puis en tant qu'assistant du Dr Zdzisław Sławiński dans le service de chirurgie.
+Depuis 1929, il vit à Pruszków, petite ville à quelques kilomêtres de Varsovie. Le maire de Pruszków a écrit à son sujet qu'il était un travailleur social très actif dans la ville, et ainsi: il était président du BBWR, président de l'Association des anciens volontaires de l'armée polonaise et, à partir de 1934, conseiller municipal de la ville de Pruszków. Lors des élections municipales de 1934, au nom du BBWR (en), il est directeur de la campagne électorale et, après les élections devient conseiller municipal, il est président du club du Bloc d'unité économique.Il est également président du cercle de Pruszkow des anciens volontaires de l'armée polonaise (pl). En tant que médecin, il est médecin bénévole auprès des enfants handicapés et des filles-mères dans les établissements tenus par les Sœurs Samaritaines.[source insuffisante]
 [source insuffisante]
-Le 29 décembre 1936, il demande à être réadmis au service actif, ce qu'il fait le 4 mai 1937 avec le grade de capitaine[8] et l'ancienneté du 1er janvier 1936[9]. Il est affecté à l'hôpital du 10e district de Przemyśl, où il est nommé médecin-chef[10].[source insuffisante]
-Seconde guerre mondiale
-En septembre 1939, il est affecté au 1er hôpital de district de Piłsudski à Varsovie en tant que chef principal du service de chirurgie, puis est évacué avec lui à Chełm Lubelski où il est brièvement fait prisonnier par la Wehrmacht. Dès sa libération il rentra à Pruszkow.[réf. nécessaire]
-Pendant l'occupation, de 1940 à 1943, il exerce les fonctions de directeur d'hôpital et d'ordonnateur du service de chirurgie de l'hôpital de district de Pruszków. Il prète serment et entre dans la conspiration en 1941. Il cache Jan Papis-Papiewski[11], alors recherché par la Gestapo, dans son hôpital en l'engageant sous un faux nom en tant qu'intendant[12]. Il a dû interrompre son travail parce qu'il était membre de l'armée souterraine AK en 1941 et qu'il était recherché par la Gestapo après l'arrestation de son groupe "Osa- Kosa30" (pl) le 5 Juin 1943 sur la place des Trois Croix. Il était non seulement le médecin du groupe mais il cachait également les plans de l'action Krüger (pl) dans la chaufferie de l'hopital [13]. Il portait le pseudonyme "Adam S-II"[14] il était la doublure (bras droit) du Dr Jozef Chojnowski [15]"Adam I" ("S" signifie bataillon sanitaire). Les cadres hospitaliers avaient tous une "doublure" de confiance, au courant des dossiers médicaux, au cas où ils se feraient arreter.[source insuffisante]
-Il se cache alors sous une fausse identité à Henrykow chez les Sœurs Samaritaines jusqu'au soulèvement de Varsovie[16]. Il y continue son activité de médecin, l'institution cachant alors des enfants du ghetto amenés là par Zegota, des orphelins de l'institution du père Boduen (pl) qui a été bombardée, des familles entières ayant besoin de se dissimuler et des soldats de l'armée de l'interieur[17]. il y avait également une cache d'arme dans l'étable et un théatre clandestin dirigé par Léon Schiller.[source insuffisante]  
-Le 26 octobre 1942, Czesław Gawlikowski épouse Anna Cwiklińska à Zakopane, avec qui il a deux enfants: Andrzej Czesław et Elżbieta Anna. Elle le rejoint à Henrykow juste après la naissance prématurée de leur fils Andrzej[18].[source insuffisante]
-Soulèvement de Varsovie - 1er Aout 1944
-Czeslaw Gawlikowski est chargé de préparer les plans d'installations sanitaires pour le soulèvement de Varsovie pour le VII district Obroza rayon ""Brzozow/ Legionowo[15]" (2eme bataillon sanitaire)[19].[source insuffisante]
-Lors du soulèvement de Varsovie, le caporal Ludwik Drzewiecki "Organ" est allé spécialement chercher le Dr Czesław Gawlikowski "Adam S-II" au point de regroupement du bataillon sanitaire. Deux médecins, quatre infirmières, huit aides-soignants et un séminariste se présentent au point de rassemblement. Vers minuit, l'unité se met en route avec une voiture sanitaire attelée à une paire de chevaux et chargée de matériel médical, de médicaments et de trousses de premiers soins, en direction de Jablonna, où devait être établi l'hopital de campagne de II bataillon. Le groupe est conduit par "Organ" le long de la route à travers Kępa Tarchomińska et plus loin le long de la Vistule jusqu'au parc du palais de Jablonna. Le 2 août, vers 5 heures du matin, le groupe atteint Jabłonna par la rue Piaskowa, où, au lieu de guetteurs insurgés, ils rencontrent une patrouille allemande. Le groupe n'était pas prévenu que la veille, Jablonna a été occupée par la division blindée du débarquement "H.Goering" amenée d'Italie au dernier moment. Les Allemands, n'ayant pas reçu de réponse au mot de passe, ont ouvert le feu. L'unité sanitaire réussit à s'enfuir et se cacher, mais l'un d'eux, Jan Świątek "Piątek", a été capturé et abattu par les Allemands sur place. Les Allemands ont également capturé le chariot sanitaire[19].[source insuffisante]
-Dès le lendemain, Czesław Gawlikowski travaille - entre autres -  à l'hopital des insurgés de Legionowo[20], situé dans une villa de la rue Krasińskiego, il a été créé les 5 et 6 août 1944 en raison de l'afflux de nombreux blessés. Afin d'éloigner les Allemands de l'établissement, une plaque fut placée à l'entrée avec l'inscription suivante : "Hôpital infectieux - typhus tacheté". L'hôpital a été organisé par le docteur Władysław Binder et le feldsher Kubica. Les docteurs Łukasz Bożęcki, Czesław Gawlikowski, Frydrychowicz et Sturmer ont travaillé à l'hôpital. Helena Polska travaillait comme sœur de salle. L'hôpital employait également 8 infirmières, religieuses, aides-soignantes et infirmières. L'effectif moyen du personnel médical était d'environ 22 personnes. L'hôpital disposait de trois salles avec environ 40 lits. Il disposait d'une salle de soins et d'une salle d'opération. Il était bien équipé grâce à un train sanitaire allemand déraillé par des insurgés du II bataillon près de Chotomow[15].[source insuffisante]
-Après guerre
-De 1945 à 1956[21], il occupe à nouveau le poste de directeur de l'hôpital de Pruszków. De novembre 1946 au 8 avril 19S4, il est directeur de l'hôpital de Gorzów Wïelkopoiski[3] en même temps que chef de la chirurgie. Le 11 décembre 1951, il obtient une spécialisation de deuxième degré en chirurgie. Dans le cadre de ses fonctions il entame un bras de fer avec les autorités politiques communistes de l'époque mais finit par en perdre son poste[22]. Il travaille également bénévolement pour l'organisation "Dom dziecka i Matki" rue Walczak (maison de la mère et de l'enfant) qui n'existe plus aujourd'hui[23].[source insuffisante]
-Par décision du ministre de la santé du 2 octobre 1954, il est muté à Suwalki au poste de chef du service de chirurgie de l'hôpital du district de Ludwik Rydygier à Suwalki (le 1er Octobre 1954, il a été engagé par le département de la santé du présidium du conseil national du district à Suwalki). Il a occupé le poste de chef du service chirurgical jusqu'à sa retraite le 1er avril 1969. Il a continué d'exercer dans son cabinet privé rue Kamedulska jusqu'a la fin des années 70[6].[source insuffisante]
+Le 29 décembre 1936, il demande à être réadmis au service actif, ce qu'il fait le 4 mai 1937 avec le grade de capitaine et l'ancienneté du 1er janvier 1936. Il est affecté à l'hôpital du 10e district de Przemyśl, où il est nommé médecin-chef.[source insuffisante]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Czesław_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Czes%C5%82aw_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Seconde guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 1939, il est affecté au 1er hôpital de district de Piłsudski à Varsovie en tant que chef principal du service de chirurgie, puis est évacué avec lui à Chełm Lubelski où il est brièvement fait prisonnier par la Wehrmacht. Dès sa libération il rentra à Pruszkow.[réf. nécessaire]
+Pendant l'occupation, de 1940 à 1943, il exerce les fonctions de directeur d'hôpital et d'ordonnateur du service de chirurgie de l'hôpital de district de Pruszków. Il prète serment et entre dans la conspiration en 1941. Il cache Jan Papis-Papiewski, alors recherché par la Gestapo, dans son hôpital en l'engageant sous un faux nom en tant qu'intendant. Il a dû interrompre son travail parce qu'il était membre de l'armée souterraine AK en 1941 et qu'il était recherché par la Gestapo après l'arrestation de son groupe "Osa- Kosa30" (pl) le 5 Juin 1943 sur la place des Trois Croix. Il était non seulement le médecin du groupe mais il cachait également les plans de l'action Krüger (pl) dans la chaufferie de l'hopital . Il portait le pseudonyme "Adam S-II" il était la doublure (bras droit) du Dr Jozef Chojnowski "Adam I" ("S" signifie bataillon sanitaire). Les cadres hospitaliers avaient tous une "doublure" de confiance, au courant des dossiers médicaux, au cas où ils se feraient arreter.[source insuffisante]
+Il se cache alors sous une fausse identité à Henrykow chez les Sœurs Samaritaines jusqu'au soulèvement de Varsovie. Il y continue son activité de médecin, l'institution cachant alors des enfants du ghetto amenés là par Zegota, des orphelins de l'institution du père Boduen (pl) qui a été bombardée, des familles entières ayant besoin de se dissimuler et des soldats de l'armée de l'interieur. il y avait également une cache d'arme dans l'étable et un théatre clandestin dirigé par Léon Schiller.[source insuffisante]  
+Le 26 octobre 1942, Czesław Gawlikowski épouse Anna Cwiklińska à Zakopane, avec qui il a deux enfants: Andrzej Czesław et Elżbieta Anna. Elle le rejoint à Henrykow juste après la naissance prématurée de leur fils Andrzej.[source insuffisante]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Czesław_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Czes%C5%82aw_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Soulèvement de Varsovie - 1er Aout 1944</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Czeslaw Gawlikowski est chargé de préparer les plans d'installations sanitaires pour le soulèvement de Varsovie pour le VII district Obroza rayon ""Brzozow/ Legionowo" (2eme bataillon sanitaire).[source insuffisante]
+Lors du soulèvement de Varsovie, le caporal Ludwik Drzewiecki "Organ" est allé spécialement chercher le Dr Czesław Gawlikowski "Adam S-II" au point de regroupement du bataillon sanitaire. Deux médecins, quatre infirmières, huit aides-soignants et un séminariste se présentent au point de rassemblement. Vers minuit, l'unité se met en route avec une voiture sanitaire attelée à une paire de chevaux et chargée de matériel médical, de médicaments et de trousses de premiers soins, en direction de Jablonna, où devait être établi l'hopital de campagne de II bataillon. Le groupe est conduit par "Organ" le long de la route à travers Kępa Tarchomińska et plus loin le long de la Vistule jusqu'au parc du palais de Jablonna. Le 2 août, vers 5 heures du matin, le groupe atteint Jabłonna par la rue Piaskowa, où, au lieu de guetteurs insurgés, ils rencontrent une patrouille allemande. Le groupe n'était pas prévenu que la veille, Jablonna a été occupée par la division blindée du débarquement "H.Goering" amenée d'Italie au dernier moment. Les Allemands, n'ayant pas reçu de réponse au mot de passe, ont ouvert le feu. L'unité sanitaire réussit à s'enfuir et se cacher, mais l'un d'eux, Jan Świątek "Piątek", a été capturé et abattu par les Allemands sur place. Les Allemands ont également capturé le chariot sanitaire.[source insuffisante]
+Dès le lendemain, Czesław Gawlikowski travaille - entre autres -  à l'hopital des insurgés de Legionowo, situé dans une villa de la rue Krasińskiego, il a été créé les 5 et 6 août 1944 en raison de l'afflux de nombreux blessés. Afin d'éloigner les Allemands de l'établissement, une plaque fut placée à l'entrée avec l'inscription suivante : "Hôpital infectieux - typhus tacheté". L'hôpital a été organisé par le docteur Władysław Binder et le feldsher Kubica. Les docteurs Łukasz Bożęcki, Czesław Gawlikowski, Frydrychowicz et Sturmer ont travaillé à l'hôpital. Helena Polska travaillait comme sœur de salle. L'hôpital employait également 8 infirmières, religieuses, aides-soignantes et infirmières. L'effectif moyen du personnel médical était d'environ 22 personnes. L'hôpital disposait de trois salles avec environ 40 lits. Il disposait d'une salle de soins et d'une salle d'opération. Il était bien équipé grâce à un train sanitaire allemand déraillé par des insurgés du II bataillon près de Chotomow.[source insuffisante]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Czesław_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Czes%C5%82aw_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Après guerre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1945 à 1956, il occupe à nouveau le poste de directeur de l'hôpital de Pruszków. De novembre 1946 au 8 avril 19S4, il est directeur de l'hôpital de Gorzów Wïelkopoiski en même temps que chef de la chirurgie. Le 11 décembre 1951, il obtient une spécialisation de deuxième degré en chirurgie. Dans le cadre de ses fonctions il entame un bras de fer avec les autorités politiques communistes de l'époque mais finit par en perdre son poste. Il travaille également bénévolement pour l'organisation "Dom dziecka i Matki" rue Walczak (maison de la mère et de l'enfant) qui n'existe plus aujourd'hui.[source insuffisante]
+Par décision du ministre de la santé du 2 octobre 1954, il est muté à Suwalki au poste de chef du service de chirurgie de l'hôpital du district de Ludwik Rydygier à Suwalki (le 1er Octobre 1954, il a été engagé par le département de la santé du présidium du conseil national du district à Suwalki). Il a occupé le poste de chef du service chirurgical jusqu'à sa retraite le 1er avril 1969. Il a continué d'exercer dans son cabinet privé rue Kamedulska jusqu'a la fin des années 70.[source insuffisante]
 Parallèlement, à partir du 1er janvier 1959, il a travaillé comme médecin à la clinique chirurgicale ambulatoire de l'hôpital régional de Suwałki. Du 1er octobre 1970 au 30 août 1977, il est inspecteur provincial de l'évaluation médicale (pour les pensions) et président de la commission médicale.[réf. nécessaire]
-Décorations militaires
-* Croix de l'indépendance - décoration décernée pour avoir combattu pour l'indépendance de la Pologne avant la création de l'État polonais[24].[source insuffisante]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Czesław_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Czes%C5%82aw_Gawlikowski</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décorations militaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">* Croix de l'indépendance - décoration décernée pour avoir combattu pour l'indépendance de la Pologne avant la création de l'État polonais.[source insuffisante]
 </t>
         </is>
       </c>
